--- a/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1321140882736451</v>
+        <v>0.1352118083071735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1395871989783906</v>
+        <v>0.1380020098480882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.142791743736946</v>
+        <v>0.1444433775479317</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.196372731119218</v>
+        <v>0.195838114123191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1781109200544722</v>
+        <v>0.1802838823246673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1786691172921278</v>
+        <v>0.1800990347948434</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1426975009332673</v>
+        <v>0.1453129455395716</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1716788785068302</v>
+        <v>0.1734459205961989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1641361945083498</v>
+        <v>0.1636893666937732</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1794652303539546</v>
+        <v>0.1784615364485617</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2050867807615471</v>
+        <v>0.2051058145317495</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1868131304343222</v>
+        <v>0.187806405323393</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2282499960510801</v>
+        <v>0.2282499960510802</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2241585897759053</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1903891491526969</v>
+        <v>0.1949135237518214</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1971331916793458</v>
+        <v>0.1975653113136302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2042007084484343</v>
+        <v>0.2052212662483223</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2646738490073349</v>
+        <v>0.2662831707638962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2532837817361018</v>
+        <v>0.2535376270582755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2495934236169227</v>
+        <v>0.251409696755177</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1617071273764395</v>
+        <v>0.1618409650694229</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1787733247097128</v>
+        <v>0.1778026103862713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1745491334191129</v>
+        <v>0.1738192126528993</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1901687840045349</v>
+        <v>0.1910305668003261</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2008937961479823</v>
+        <v>0.2009996669771519</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.191454954668366</v>
+        <v>0.1922471152036578</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>68274</v>
+        <v>69875</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106461</v>
+        <v>105252</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>182697</v>
+        <v>184811</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>101482</v>
+        <v>101206</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>135842</v>
+        <v>137500</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>228601</v>
+        <v>230431</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>295088</v>
+        <v>300496</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>350274</v>
+        <v>353880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>674306</v>
+        <v>672471</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>371120</v>
+        <v>369045</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>418436</v>
+        <v>418475</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>767468</v>
+        <v>771549</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>129937</v>
+        <v>133025</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>138657</v>
+        <v>138961</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>282991</v>
+        <v>284405</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>180635</v>
+        <v>181733</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178151</v>
+        <v>178330</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>345898</v>
+        <v>348415</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>528328</v>
+        <v>528765</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>626840</v>
+        <v>623436</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1182313</v>
+        <v>1177369</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>621317</v>
+        <v>624133</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>704402</v>
+        <v>704773</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1296825</v>
+        <v>1302191</v>
       </c>
     </row>
     <row r="20">
